--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>763103.3645012717</v>
+        <v>759331.1631676384</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6010015.580922046</v>
+        <v>6010015.580922047</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>29.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,58 +834,58 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="Y4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="V4" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770259</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>36.39025468426209</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,17 +1104,17 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="8">
@@ -1217,70 +1217,70 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Y9" t="n">
         <v>36.39025468426209</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>16.04771755488813</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>20.34253712937397</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.0222464589344</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>32.5212744376193</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>172.5797271680922</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>14.75918992024017</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>257.6351509699953</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>39.86811692413107</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1776,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>86.87739406814553</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7335122538376</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>23.00716224037807</v>
+        <v>100.9386117200761</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>57.09228531058636</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>53.19117033386376</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>116.6395830120779</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>207.8036360811305</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>86.38976318987905</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>11.31461330144372</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2323,19 +2323,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>91.38213966393633</v>
       </c>
       <c r="W23" t="n">
-        <v>66.93116493993892</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2566,10 +2566,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>63.30104877636973</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>5.926939573840072</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811437</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166.1292399144886</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>237.8464084592323</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>170.2736482654248</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -3088,16 +3088,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>257.8507722241342</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>239.4474627651695</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>46.33968497442402</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>53.19117033386421</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>25.72126345476303</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.3444037903114</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>388.0251143052105</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>108.8643010498268</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>38.54731509585682</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>206.452666177198</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>260.2749012537295</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>134.264349553791</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>106.0886303599897</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>386.5350575123538</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>157.3045389801837</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>240.7578924970971</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E2" t="n">
         <v>27.13222579419039</v>
@@ -4333,10 +4333,10 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L2" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
         <v>85.10890627790634</v>
@@ -4345,13 +4345,13 @@
         <v>85.10890627790634</v>
       </c>
       <c r="O2" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="P2" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="Q2" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P2" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="E3" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="F3" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G3" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
@@ -4409,19 +4409,19 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M3" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N3" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="O3" t="n">
         <v>111.1725794383639</v>
@@ -4430,31 +4430,31 @@
         <v>111.1725794383639</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.074432455416</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W3" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="4">
@@ -4467,19 +4467,19 @@
         <v>45.03752655443588</v>
       </c>
       <c r="C4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4491,46 +4491,46 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O4" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="U4" t="n">
         <v>128.5021791757032</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="W4" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="X4" t="n">
         <v>86.76985286506957</v>
-      </c>
-      <c r="V4" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="W4" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="X4" t="n">
-        <v>45.03752655443588</v>
       </c>
       <c r="Y4" t="n">
         <v>45.03752655443588</v>
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4567,25 +4567,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C6" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
         <v>3.305200243802188</v>
@@ -4643,31 +4643,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>85.10890627790634</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L6" t="n">
-        <v>85.10890627790634</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M6" t="n">
-        <v>85.10890627790634</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N6" t="n">
-        <v>85.10890627790634</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O6" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="P6" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q6" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P6" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4679,19 +4679,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.37753827421391</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="C7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
         <v>83.45630615600527</v>
@@ -4752,13 +4752,13 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="T7" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="U7" t="n">
         <v>102.1098645848476</v>
-      </c>
-      <c r="T7" t="n">
-        <v>60.37753827421391</v>
-      </c>
-      <c r="U7" t="n">
-        <v>60.37753827421391</v>
       </c>
       <c r="V7" t="n">
         <v>60.37753827421391</v>
@@ -4770,7 +4770,7 @@
         <v>60.37753827421391</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.37753827421391</v>
+        <v>18.64521196358022</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>4.526214736576991</v>
+        <v>4.526214736577012</v>
       </c>
       <c r="J8" t="n">
-        <v>45.42806775362907</v>
+        <v>8.113598271962042</v>
       </c>
       <c r="K8" t="n">
-        <v>51.18010415573897</v>
+        <v>13.4901562582562</v>
       </c>
       <c r="L8" t="n">
-        <v>57.85019976551544</v>
+        <v>29.25689904974157</v>
       </c>
       <c r="M8" t="n">
-        <v>65.27196632122516</v>
+        <v>70.15875206679364</v>
       </c>
       <c r="N8" t="n">
-        <v>72.81382481902433</v>
+        <v>111.0606050838457</v>
       </c>
       <c r="O8" t="n">
-        <v>113.7156778360764</v>
+        <v>151.9624581008978</v>
       </c>
       <c r="P8" t="n">
-        <v>119.7937671937138</v>
+        <v>158.0405474585353</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>162.6049394378788</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4880,31 +4880,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>4.083830544273678</v>
+        <v>30.14750370473129</v>
       </c>
       <c r="J9" t="n">
-        <v>6.220451601911432</v>
+        <v>32.28412476236907</v>
       </c>
       <c r="K9" t="n">
-        <v>47.1223046189635</v>
+        <v>35.93595046586706</v>
       </c>
       <c r="L9" t="n">
-        <v>88.02415763601559</v>
+        <v>40.84628078750294</v>
       </c>
       <c r="M9" t="n">
-        <v>93.75428151604591</v>
+        <v>46.57640466753333</v>
       </c>
       <c r="N9" t="n">
-        <v>99.63606472466488</v>
+        <v>52.45818787615237</v>
       </c>
       <c r="O9" t="n">
-        <v>105.0167472609294</v>
+        <v>57.83887041241702</v>
       </c>
       <c r="P9" t="n">
-        <v>145.9186002779815</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
-        <v>163.8558987463547</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4916,19 +4916,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.9796685770778</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>61.24734226644409</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>19.5150159558104</v>
       </c>
       <c r="E10" t="n">
         <v>3.305200243802188</v>
@@ -4962,52 +4962,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>4.645647631830336</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>6.848414459527356</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>47.75026747657942</v>
+        <v>113.5118594130166</v>
       </c>
       <c r="M10" t="n">
-        <v>88.65212049363149</v>
+        <v>116.4838710256911</v>
       </c>
       <c r="N10" t="n">
-        <v>129.5539735106836</v>
+        <v>119.3852148449888</v>
       </c>
       <c r="O10" t="n">
-        <v>132.23383412391</v>
+        <v>122.0650754582153</v>
       </c>
       <c r="P10" t="n">
-        <v>163.672399885734</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>144.7119948877115</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>144.7119948877115</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>144.7119948877115</v>
       </c>
       <c r="U10" t="n">
-        <v>81.79535956884203</v>
+        <v>102.9796685770778</v>
       </c>
       <c r="V10" t="n">
-        <v>40.06303325820834</v>
+        <v>102.9796685770778</v>
       </c>
       <c r="W10" t="n">
-        <v>40.06303325820834</v>
+        <v>102.9796685770778</v>
       </c>
       <c r="X10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.9796685770778</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.9796685770778</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.05632370816613</v>
+        <v>1087.57716595253</v>
       </c>
       <c r="C11" t="n">
-        <v>80.05632370816613</v>
+        <v>1087.57716595253</v>
       </c>
       <c r="D11" t="n">
-        <v>80.05632370816613</v>
+        <v>1087.57716595253</v>
       </c>
       <c r="E11" t="n">
-        <v>80.05632370816613</v>
+        <v>653.8024211108254</v>
       </c>
       <c r="F11" t="n">
-        <v>80.05632370816613</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>80.05632370816613</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.25688596925</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.639935903077</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W11" t="n">
-        <v>1333.78448131411</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X11" t="n">
-        <v>914.6420178934205</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.3558941930739</v>
+        <v>1087.57716595253</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>894.4683967363981</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C13" t="n">
-        <v>721.906685219623</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D13" t="n">
-        <v>556.0286924211457</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>386.270688671883</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895472</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221573</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X13" t="n">
-        <v>1313.706686141277</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y13" t="n">
-        <v>1086.287015455385</v>
+        <v>1118.232467144141</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1144.298223916359</v>
+        <v>706.9467691017961</v>
       </c>
       <c r="C14" t="n">
-        <v>1144.298223916359</v>
+        <v>706.9467691017961</v>
       </c>
       <c r="D14" t="n">
-        <v>1144.298223916359</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2320.056752271846</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2320.056752271846</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>1957.439802205673</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W14" t="n">
-        <v>1552.584347616706</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X14" t="n">
-        <v>1552.584347616706</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1144.298223916359</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043084</v>
@@ -5366,7 +5366,7 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>894.4683967363981</v>
+        <v>807.9003835041287</v>
       </c>
       <c r="C16" t="n">
-        <v>721.906685219623</v>
+        <v>635.3386719873537</v>
       </c>
       <c r="D16" t="n">
-        <v>556.0286924211457</v>
+        <v>469.4606791888764</v>
       </c>
       <c r="E16" t="n">
-        <v>386.270688671883</v>
+        <v>299.7026754396136</v>
       </c>
       <c r="F16" t="n">
-        <v>209.5636346336392</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553085</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.721907816843</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O16" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
         <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.124845221573</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.098440807865</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>1313.706686141277</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>1086.287015455385</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.3558941930739</v>
+        <v>1422.719694168252</v>
       </c>
       <c r="C17" t="n">
-        <v>506.3558941930739</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="D17" t="n">
-        <v>70.44610936751843</v>
+        <v>548.6674365261201</v>
       </c>
       <c r="E17" t="n">
-        <v>70.44610936751843</v>
+        <v>548.6674365261201</v>
       </c>
       <c r="F17" t="n">
-        <v>70.44610936751843</v>
+        <v>548.6674365261201</v>
       </c>
       <c r="G17" t="n">
-        <v>70.44610936751843</v>
+        <v>149.1647452055973</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.25688596925</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.639935903077</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>1333.78448131411</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X17" t="n">
-        <v>914.6420178934205</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.3558941930739</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043084</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851411</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>558.4127897239428</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>558.4127897239428</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E19" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092371</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827552</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.320157362629</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540313</v>
@@ -5697,10 +5697,10 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
         <v>2118.080353351143</v>
@@ -5715,10 +5715,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1120.886428673515</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1120.886428673515</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>684.9766438479596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>684.9766438479596</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>257.1092142571674</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>257.1092142571674</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
         <v>805.440802286702</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.472122858769</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.472122858769</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158423</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,13 +5822,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>528.8193777246577</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>733.4227107706873</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9641928553085</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N22" t="n">
-        <v>1480.721907816843</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O22" t="n">
-        <v>2018.157038390386</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2273.065190387253</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447736</v>
+        <v>2030.817966290659</v>
       </c>
       <c r="U22" t="n">
-        <v>2081.940945496479</v>
+        <v>1752.431334339402</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.985437366909</v>
+        <v>1465.475826209833</v>
       </c>
       <c r="W22" t="n">
-        <v>1522.959032953201</v>
+        <v>1193.449421796124</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.53013062851</v>
+        <v>948.0576671295366</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.110459942618</v>
+        <v>720.6379964436449</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2028.881494940646</v>
+        <v>1767.20229871932</v>
       </c>
       <c r="C23" t="n">
-        <v>1590.739022124069</v>
+        <v>1329.059825902743</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.739022124069</v>
+        <v>893.1500410771876</v>
       </c>
       <c r="E23" t="n">
-        <v>1156.964277282364</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="F23" t="n">
-        <v>729.0968476915723</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G23" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H23" t="n">
         <v>59.87260491495994</v>
@@ -5989,52 +5989,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>404.7041099004329</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>1145.627595723062</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527073</v>
+        <v>1438.743470586963</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821494</v>
+        <v>1764.89135875575</v>
       </c>
       <c r="N23" t="n">
-        <v>1475.680045797972</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.635560339264</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P23" t="n">
-        <v>2055.735851518534</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q23" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R23" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S23" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T23" t="n">
-        <v>2781.858994217109</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U23" t="n">
-        <v>2522.788302738623</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V23" t="n">
-        <v>2522.788302738623</v>
+        <v>2601.787992904574</v>
       </c>
       <c r="W23" t="n">
-        <v>2455.181065425554</v>
+        <v>2601.787992904574</v>
       </c>
       <c r="X23" t="n">
-        <v>2455.181065425554</v>
+        <v>2601.787992904574</v>
       </c>
       <c r="Y23" t="n">
-        <v>2455.181065425554</v>
+        <v>2193.501869204228</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643598</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M24" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6135,7 +6135,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G25" t="n">
         <v>255.311952099396</v>
@@ -6150,19 +6150,19 @@
         <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>302.1580543493911</v>
+        <v>493.820171545082</v>
       </c>
       <c r="L25" t="n">
-        <v>844.2387377356501</v>
+        <v>1035.900854931341</v>
       </c>
       <c r="M25" t="n">
-        <v>1434.326997255093</v>
+        <v>1625.989114450783</v>
       </c>
       <c r="N25" t="n">
-        <v>2004.084712216627</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O25" t="n">
-        <v>2541.51984279017</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P25" t="n">
         <v>2739.199106976242</v>
@@ -6174,7 +6174,7 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S25" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T25" t="n">
         <v>2606.956483155638</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1329.059825902743</v>
+        <v>1859.507490299054</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.059825902743</v>
+        <v>1421.365017482477</v>
       </c>
       <c r="D26" t="n">
-        <v>893.1500410771876</v>
+        <v>985.4552326569215</v>
       </c>
       <c r="E26" t="n">
-        <v>459.3752962354828</v>
+        <v>551.6804878152166</v>
       </c>
       <c r="F26" t="n">
-        <v>459.3752962354828</v>
+        <v>123.8130582244243</v>
       </c>
       <c r="G26" t="n">
         <v>59.87260491495994</v>
@@ -6232,46 +6232,46 @@
         <v>524.9909807888067</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527073</v>
+        <v>854.8138081800637</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821494</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339264</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P26" t="n">
-        <v>2529.559046161894</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q26" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.630245747997</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V26" t="n">
-        <v>2987.643438097653</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="W26" t="n">
-        <v>2582.787983508687</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.645520087998</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="Y26" t="n">
-        <v>1755.359396387651</v>
+        <v>2285.807060783961</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643598</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J27" t="n">
         <v>187.9826804329031</v>
@@ -6363,7 +6363,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
@@ -6375,10 +6375,10 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.3119520993959</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H28" t="n">
-        <v>122.9678914787118</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I28" t="n">
         <v>59.87260491495994</v>
@@ -6393,16 +6393,16 @@
         <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
-        <v>1709.085451826228</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N28" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O28" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1335.046633553087</v>
+        <v>1565.63409607642</v>
       </c>
       <c r="C29" t="n">
-        <v>896.9041607365102</v>
+        <v>1127.491623259843</v>
       </c>
       <c r="D29" t="n">
-        <v>896.9041607365102</v>
+        <v>1127.491623259843</v>
       </c>
       <c r="E29" t="n">
-        <v>896.9041607365102</v>
+        <v>1127.491623259843</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>699.6241936690508</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>300.1215023485279</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6463,52 +6463,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888067</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527073</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M29" t="n">
-        <v>1144.254743821494</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N29" t="n">
-        <v>1475.680045797972</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O29" t="n">
-        <v>1788.635560339264</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P29" t="n">
-        <v>2055.735851518534</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q29" t="n">
-        <v>2796.659337341162</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V29" t="n">
-        <v>2993.630245747997</v>
+        <v>2378.775674365733</v>
       </c>
       <c r="W29" t="n">
-        <v>2588.77479115903</v>
+        <v>1973.920219776766</v>
       </c>
       <c r="X29" t="n">
-        <v>2169.632327738341</v>
+        <v>1973.920219776766</v>
       </c>
       <c r="Y29" t="n">
-        <v>1761.346204037995</v>
+        <v>1565.63409607642</v>
       </c>
     </row>
     <row r="30">
@@ -6548,10 +6548,10 @@
         <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M30" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6609,7 +6609,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
@@ -6624,22 +6624,22 @@
         <v>118.7782686171431</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5783691847012</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L31" t="n">
-        <v>757.6590525709602</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M31" t="n">
-        <v>1183.730311293139</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N31" t="n">
-        <v>1753.488026254673</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O31" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P31" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>501.5877404775392</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>501.5877404775392</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>501.5877404775392</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>501.5877404775392</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6700,52 +6700,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>1029.642816232215</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L32" t="n">
-        <v>1322.758691096116</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M32" t="n">
-        <v>1648.906579264903</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N32" t="n">
-        <v>1980.33188124138</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O32" t="n">
-        <v>2293.287395782673</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P32" t="n">
-        <v>2560.387686961942</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q32" t="n">
-        <v>2760.968881973009</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2522.788302738623</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V32" t="n">
-        <v>2160.17135267245</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="W32" t="n">
-        <v>1755.315898083483</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="X32" t="n">
-        <v>1336.173434662794</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="Y32" t="n">
-        <v>927.887310962447</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6785,10 +6785,10 @@
         <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M33" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6837,16 +6837,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868774</v>
       </c>
       <c r="G34" t="n">
         <v>255.311952099396</v>
@@ -6867,13 +6867,13 @@
         <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1709.085451826228</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
-        <v>1836.584363630118</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2374.019494203661</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
         <v>2739.199106976242</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1163.124933196309</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="C35" t="n">
-        <v>724.9824603797319</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="D35" t="n">
-        <v>289.0726755541764</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E35" t="n">
-        <v>289.0726755541764</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6940,22 +6940,22 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2273.053445062106</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="W35" t="n">
-        <v>1997.710627381563</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="X35" t="n">
-        <v>1997.710627381563</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="Y35" t="n">
-        <v>1589.424503681216</v>
+        <v>2013.98275358362</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>959.9477806029472</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>787.3860690861721</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>621.5080762876948</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E37" t="n">
-        <v>451.7500725384321</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
@@ -7101,19 +7101,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>910.9641928553087</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818745</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2189.91996475524</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1911.533332803983</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1624.577824674414</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1624.577824674414</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1379.186070007826</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>1151.766399321934</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>483.1163363745102</v>
+        <v>867.018541044</v>
       </c>
       <c r="C38" t="n">
-        <v>483.1163363745102</v>
+        <v>867.018541044</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895473</v>
+        <v>867.018541044</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895473</v>
+        <v>867.018541044</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>439.1511114532078</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W38" t="n">
-        <v>1484.630179849396</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X38" t="n">
-        <v>1065.487716428707</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y38" t="n">
-        <v>657.2015927283602</v>
+        <v>1293.318111528908</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.0748969752678</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>699.0748969752678</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D40" t="n">
-        <v>589.1109565208974</v>
+        <v>616.081764785142</v>
       </c>
       <c r="E40" t="n">
-        <v>419.3529527716346</v>
+        <v>446.3237610358793</v>
       </c>
       <c r="F40" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
         <v>242.6458987333908</v>
@@ -7329,28 +7329,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>295.9524490360514</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>419.8232506543494</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>550.4276429928788</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>890.893515694255</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>655.2472895131119</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>1413.109479827605</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>979.3347349859</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867023</v>
@@ -7447,16 +7447,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X41" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>591.9146642884097</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C43" t="n">
-        <v>419.3529527716346</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="D43" t="n">
-        <v>419.3529527716346</v>
+        <v>548.024457587493</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3529527716346</v>
+        <v>378.2664538382302</v>
       </c>
       <c r="F43" t="n">
         <v>242.6458987333908</v>
@@ -7566,28 +7566,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1806.693246240844</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>1924.459127588606</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y43" t="n">
-        <v>783.7332830073967</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1745.473006065472</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>1307.330533248896</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>871.4207484233402</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>437.6460035816354</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.473006065472</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W44" t="n">
-        <v>1745.473006065472</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X44" t="n">
-        <v>1745.473006065472</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y44" t="n">
-        <v>1745.473006065472</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>908.8655996749508</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C46" t="n">
-        <v>908.8655996749508</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>742.9876068764735</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
         <v>584.0941331591162</v>
@@ -7803,28 +7803,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,7 +7833,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
         <v>1973.653814855378</v>
@@ -7842,16 +7842,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1165.121884373444</v>
       </c>
       <c r="X46" t="n">
-        <v>1136.285270360843</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.8655996749508</v>
+        <v>919.7301297068562</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="M7" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="N7" t="n">
         <v>41.31500304752734</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>37.69138331481524</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3792711270866818</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9.188532506776575</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>33.81826915287096</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>33.69696416086143</v>
       </c>
       <c r="O8" t="n">
-        <v>34.12150494899869</v>
+        <v>34.12150494899859</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>38.63311137860759</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.62629021571124</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>36.3550734297134</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>36.95291001247264</v>
+        <v>21.51410468574143</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.2025396270742</v>
+        <v>38.39905937321446</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.89670663969429</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.96101578689284</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.08998604985357</v>
       </c>
       <c r="L10" t="n">
-        <v>38.46774733704561</v>
+        <v>25.84259594114479</v>
       </c>
       <c r="M10" t="n">
-        <v>38.31297111553292</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>38.38435272500446</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>29.43988085553744</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.71135425522897</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>69.27619576520556</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>156.7304232042861</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042861</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>433.0638956244409</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>410.7470639734277</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371567</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>156.7304232042861</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.1563429200475</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>509.7493287307154</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>456.0429799810086</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>193.5980981774656</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,13 +9807,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>97.88909899837154</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9880,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>37.07772982561244</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>418.965250155396</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>478.6092875185454</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.2963841322176</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10041,19 +10041,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O28" t="n">
-        <v>63.13826621921589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>545.8002937490519</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>81.10537790171111</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>298.4513801855041</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>509.7493287307154</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>117.1563429200478</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>267.0813702978758</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>252.4394223833804</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>93.97993254278322</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>81.48308576736576</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23266,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>218.5665088359499</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>234.5030615039094</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.360256329769157</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>210.3862840587926</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>173.9155360073046</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>169.7854220914478</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>88.0625894297158</v>
       </c>
       <c r="G16" t="n">
-        <v>2.360256329769157</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>244.0171737011506</v>
+        <v>166.0857242214525</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>113.7438090910209</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>305.3969917679808</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>59.22069986039816</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>56.59250992092878</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.6232238184779</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>267.6086409015754</v>
       </c>
       <c r="W23" t="n">
-        <v>333.8757351031381</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>332.2066156309479</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.0638409916717</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>257.4595153803958</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>29.17792748229633</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>253.3151070294595</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>101.1400083413776</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>184.1412925297149</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>163.3138540411549</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>214.1034884008644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>249.6921709897472</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>7.482550102107098</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>55.35491182066578</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>136.3926684020045</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>227.3083819112129</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>163.3138540411548</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>40.67563394407028</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>119.0568436190431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>37.05369778253049</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>100.0994919970771</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>10.75588473158638</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>28.54824787247426</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327964.8503692296</v>
+        <v>327964.8503692295</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>327964.8503692296</v>
+        <v>327964.8503692297</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>327964.8503692295</v>
+        <v>327964.8503692297</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>327964.8503692296</v>
+        <v>327964.8503692297</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>327964.8503692296</v>
+        <v>327964.8503692297</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>327964.8503692296</v>
+        <v>327964.8503692297</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>402110.4899178062</v>
       </c>
       <c r="C2" t="n">
+        <v>402110.4899178062</v>
+      </c>
+      <c r="D2" t="n">
         <v>402110.4899178064</v>
       </c>
-      <c r="D2" t="n">
-        <v>402110.4899178062</v>
-      </c>
       <c r="E2" t="n">
+        <v>235946.3569512258</v>
+      </c>
+      <c r="F2" t="n">
         <v>235946.3569512259</v>
-      </c>
-      <c r="F2" t="n">
-        <v>235946.3569512258</v>
       </c>
       <c r="G2" t="n">
         <v>235946.3569512259</v>
@@ -26334,10 +26334,10 @@
         <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
-        <v>283687.5872818137</v>
+        <v>283687.5872818136</v>
       </c>
       <c r="J2" t="n">
-        <v>283687.5872818137</v>
+        <v>283687.5872818136</v>
       </c>
       <c r="K2" t="n">
         <v>283687.5872818136</v>
@@ -26349,7 +26349,7 @@
         <v>235946.3569512259</v>
       </c>
       <c r="N2" t="n">
-        <v>235946.3569512259</v>
+        <v>235946.356951226</v>
       </c>
       <c r="O2" t="n">
         <v>235946.3569512259</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9095.279978856981</v>
+        <v>9095.279978857097</v>
       </c>
       <c r="E3" t="n">
-        <v>530267.1569598976</v>
+        <v>530267.1569598975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426842</v>
+        <v>42102.11971426838</v>
       </c>
       <c r="J3" t="n">
         <v>10809.82265736726</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97299.51484534086</v>
+        <v>97299.51484534089</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>299165.3498152072</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="F4" t="n">
         <v>13837.47714308859</v>
       </c>
       <c r="G4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="H4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="I4" t="n">
         <v>38290.18362809526</v>
@@ -26444,13 +26444,13 @@
         <v>38290.18362809526</v>
       </c>
       <c r="K4" t="n">
-        <v>38290.18362809527</v>
+        <v>38290.18362809525</v>
       </c>
       <c r="L4" t="n">
-        <v>38290.18362809527</v>
+        <v>38290.18362809526</v>
       </c>
       <c r="M4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="N4" t="n">
         <v>13837.4771430886</v>
@@ -26475,7 +26475,7 @@
         <v>36139.55218528966</v>
       </c>
       <c r="D5" t="n">
-        <v>36371.07234205856</v>
+        <v>36371.07234205857</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50478.73096652924</v>
+        <v>50478.73096652918</v>
       </c>
       <c r="C6" t="n">
-        <v>64324.3387328259</v>
+        <v>64324.33873282572</v>
       </c>
       <c r="D6" t="n">
-        <v>57478.78778168346</v>
+        <v>57478.78778168351</v>
       </c>
       <c r="E6" t="n">
-        <v>-354209.3583613981</v>
+        <v>-354763.23880462</v>
       </c>
       <c r="F6" t="n">
-        <v>176057.7985984994</v>
+        <v>175503.9181552775</v>
       </c>
       <c r="G6" t="n">
-        <v>176057.7985984995</v>
+        <v>175503.9181552776</v>
       </c>
       <c r="H6" t="n">
-        <v>176057.7985984995</v>
+        <v>175503.9181552776</v>
       </c>
       <c r="I6" t="n">
-        <v>147618.0021716482</v>
+        <v>147223.2591628616</v>
       </c>
       <c r="J6" t="n">
-        <v>178910.2992285494</v>
+        <v>178515.5562197627</v>
       </c>
       <c r="K6" t="n">
-        <v>189720.1218859166</v>
+        <v>189325.3788771299</v>
       </c>
       <c r="L6" t="n">
-        <v>189720.1218859166</v>
+        <v>189325.37887713</v>
       </c>
       <c r="M6" t="n">
-        <v>78758.28375315864</v>
+        <v>78204.40330993669</v>
       </c>
       <c r="N6" t="n">
-        <v>176057.7985984995</v>
+        <v>175503.9181552776</v>
       </c>
       <c r="O6" t="n">
-        <v>176057.7985984995</v>
+        <v>175503.9181552775</v>
       </c>
       <c r="P6" t="n">
-        <v>176057.7985984995</v>
+        <v>175503.9181552776</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62019067747256</v>
+        <v>10.62019067747269</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932211</v>
@@ -26752,34 +26752,34 @@
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62019067747256</v>
+        <v>10.62019067747269</v>
       </c>
       <c r="E3" t="n">
-        <v>456.0817374157485</v>
+        <v>456.0817374157484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750652</v>
+        <v>158.3256670750651</v>
       </c>
       <c r="J4" t="n">
         <v>41.3150030475274</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>390.4412242393415</v>
+        <v>390.4412242393416</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27466,16 +27466,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205373</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27523,7 +27523,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>116.9285067192467</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27539,7 +27539,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>207.0303972730672</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3336676918984</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V4" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="5">
@@ -27700,16 +27700,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>57.74913128065019</v>
+        <v>57.7491312806502</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -27751,13 +27751,13 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6494827990271</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27791,10 +27791,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>72.58673813049116</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="8">
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.84246022347712</v>
+        <v>81.8424602234771</v>
       </c>
       <c r="T8" t="n">
         <v>217.6796608468852</v>
@@ -27937,7 +27937,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>48.1181407232115</v>
+        <v>84.50839540747357</v>
       </c>
       <c r="H9" t="n">
-        <v>41.09767622919687</v>
+        <v>41.09767622919686</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.3965765013923</v>
+        <v>62.39657650139229</v>
       </c>
       <c r="T9" t="n">
         <v>128.7847821833403</v>
       </c>
       <c r="U9" t="n">
-        <v>174.57167867286</v>
+        <v>133.2566756253327</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>152.012706156882</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.34253712937398</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.3152024653322</v>
       </c>
       <c r="T10" t="n">
-        <v>202.0238212111394</v>
+        <v>243.3388242586668</v>
       </c>
       <c r="U10" t="n">
         <v>234.3326230829793</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>206.5475824356596</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04269423387928662</v>
+        <v>0.04269423387928717</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4372423227162442</v>
+        <v>0.4372423227162499</v>
       </c>
       <c r="I8" t="n">
-        <v>1.645969451631199</v>
+        <v>1.64596945163122</v>
       </c>
       <c r="J8" t="n">
-        <v>3.623619732712106</v>
+        <v>3.623619732712153</v>
       </c>
       <c r="K8" t="n">
-        <v>5.43086665282231</v>
+        <v>5.43086665282238</v>
       </c>
       <c r="L8" t="n">
-        <v>6.737470312905529</v>
+        <v>6.737470312905616</v>
       </c>
       <c r="M8" t="n">
-        <v>7.496733894656293</v>
+        <v>7.496733894656389</v>
       </c>
       <c r="N8" t="n">
-        <v>7.618038886665817</v>
+        <v>7.618038886665914</v>
       </c>
       <c r="O8" t="n">
-        <v>7.19349809852866</v>
+        <v>7.193498098528752</v>
       </c>
       <c r="P8" t="n">
-        <v>6.13948419963377</v>
+        <v>6.139484199633849</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.610496948831816</v>
+        <v>4.610496948831876</v>
       </c>
       <c r="R8" t="n">
-        <v>2.681891668919741</v>
+        <v>2.681891668919775</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9728948545242448</v>
+        <v>0.9728948545242574</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1868940088065773</v>
+        <v>0.1868940088065797</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003415538710342929</v>
+        <v>0.003415538710342973</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02284342900437493</v>
+        <v>0.02284342900437522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.220619432752779</v>
+        <v>0.2206194327527818</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7864952530015054</v>
+        <v>0.7864952530015156</v>
       </c>
       <c r="J9" t="n">
-        <v>2.158203088522984</v>
+        <v>2.158203088523012</v>
       </c>
       <c r="K9" t="n">
-        <v>3.688712831816105</v>
+        <v>3.688712831816152</v>
       </c>
       <c r="L9" t="n">
-        <v>4.959929617813952</v>
+        <v>4.959929617814016</v>
       </c>
       <c r="M9" t="n">
-        <v>5.788003919222542</v>
+        <v>5.788003919222617</v>
       </c>
       <c r="N9" t="n">
-        <v>5.94119516022118</v>
+        <v>5.941195160221256</v>
       </c>
       <c r="O9" t="n">
-        <v>5.435032864913715</v>
+        <v>5.435032864913785</v>
       </c>
       <c r="P9" t="n">
-        <v>4.362093035054719</v>
+        <v>4.362093035054775</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.915943674312842</v>
+        <v>2.91594367431288</v>
       </c>
       <c r="R9" t="n">
-        <v>1.418296407833034</v>
+        <v>1.418296407833052</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4243066747084551</v>
+        <v>0.4243066747084606</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09207504936412524</v>
+        <v>0.09207504936412642</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001502857171340457</v>
+        <v>0.001502857171340476</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01915116351675378</v>
+        <v>0.01915116351675403</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1702712538125929</v>
+        <v>0.1702712538125951</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5759277173947414</v>
+        <v>0.5759277173947487</v>
       </c>
       <c r="J10" t="n">
-        <v>1.353987260634493</v>
+        <v>1.35398726063451</v>
       </c>
       <c r="K10" t="n">
-        <v>2.225016997673757</v>
+        <v>2.225016997673786</v>
       </c>
       <c r="L10" t="n">
-        <v>2.847255710481741</v>
+        <v>2.847255710481778</v>
       </c>
       <c r="M10" t="n">
-        <v>3.002031931994414</v>
+        <v>3.002031931994452</v>
       </c>
       <c r="N10" t="n">
-        <v>2.930650322522879</v>
+        <v>2.930650322522917</v>
       </c>
       <c r="O10" t="n">
-        <v>2.706929912349891</v>
+        <v>2.706929912349926</v>
       </c>
       <c r="P10" t="n">
-        <v>2.316246176608112</v>
+        <v>2.316246176608141</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.603648792298356</v>
+        <v>1.603648792298376</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8611059523078564</v>
+        <v>0.8611059523078675</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3337525496510636</v>
+        <v>0.3337525496510679</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08182769866249343</v>
+        <v>0.08182769866249448</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001044608919095662</v>
+        <v>0.001044608919095676</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32332,19 +32332,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916772</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916772</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -34701,28 +34701,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="M7" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="N7" t="n">
         <v>41.31500304752734</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.233347972499802</v>
+        <v>1.233347972499823</v>
       </c>
       <c r="J8" t="n">
+        <v>3.623619732712152</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.430866652822381</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.92600281968219</v>
+      </c>
+      <c r="M8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.810137779908992</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.737470312905529</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7.496733894656295</v>
-      </c>
       <c r="N8" t="n">
-        <v>7.618038886665815</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O8" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P8" t="n">
-        <v>6.13948419963377</v>
+        <v>6.139484199633841</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.610496948831809</v>
+        <v>4.610496948831866</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>2.681891668919775</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.786495253001505</v>
+        <v>27.11343783932232</v>
       </c>
       <c r="J9" t="n">
-        <v>2.158203088522984</v>
+        <v>2.158203088523013</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752735</v>
+        <v>3.688712831816154</v>
       </c>
       <c r="L9" t="n">
-        <v>41.31500304752736</v>
+        <v>4.959929617814019</v>
       </c>
       <c r="M9" t="n">
-        <v>5.788003919222547</v>
+        <v>5.788003919222618</v>
       </c>
       <c r="N9" t="n">
-        <v>5.941195160221184</v>
+        <v>5.941195160221255</v>
       </c>
       <c r="O9" t="n">
-        <v>5.435032864913708</v>
+        <v>5.435032864913786</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752736</v>
+        <v>25.87619772079621</v>
       </c>
       <c r="Q9" t="n">
-        <v>18.11848330138704</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>1.418296407833026</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.353987260634493</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>2.225016997673757</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>28.68985165162657</v>
       </c>
       <c r="M10" t="n">
+        <v>3.002031931994452</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.930650322522922</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.706929912349921</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.316246176608146</v>
+      </c>
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.706929912349892</v>
-      </c>
-      <c r="P10" t="n">
-        <v>31.75612703214554</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.603648792298344</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35491,22 +35491,22 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,25 +35570,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>171.0631211972091</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,19 +35646,19 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,10 +35734,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35807,25 +35807,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>227.2024143463627</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184533</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36044,22 +36044,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409507</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>564.987524249218</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36281,25 +36281,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>535.8690858100922</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>227.2024143463627</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>276.3955098326185</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766673</v>
@@ -36378,10 +36378,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>658.6502476689557</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916772</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>291.3759775386355</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893358</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>199.676024430375</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,10 +36600,10 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>333.1543711022798</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>748.407561436999</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.9036518201647</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916772</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36761,19 +36761,19 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O28" t="n">
-        <v>182.0937019240259</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36852,10 +36852,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>748.407561436999</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>198.9605135422571</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>430.3750088102813</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
@@ -37010,7 +37010,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>748.4075614369992</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37092,7 +37092,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>235.0114785605938</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37171,7 +37171,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,16 +37235,16 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>368.8682957298793</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37466,22 +37466,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>381.2262019832688</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>191.7578119039531</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37785,7 +37785,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37803,7 +37803,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>183.2700111993693</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -38189,13 +38189,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
